--- a/SensitivityAnalisys/CF_G_2023_3.xlsx
+++ b/SensitivityAnalisys/CF_G_2023_3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81F3399-7F25-4AA0-8EA6-F8AFADB51296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4395C768-8CC4-4583-8F53-50D909C29855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2610" windowWidth="25305" windowHeight="9435" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="79890" yWindow="0" windowWidth="25815" windowHeight="20985" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="42">
   <si>
     <t>ReportingNode</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Values11</t>
   </si>
   <si>
-    <t>GIC1</t>
-  </si>
-  <si>
     <t>PR</t>
   </si>
   <si>
@@ -194,12 +191,18 @@
   <si>
     <t>C</t>
   </si>
+  <si>
+    <t>GIC2</t>
+  </si>
+  <si>
+    <t>BOP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,14 +212,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -245,10 +240,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,7 +515,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>PR</c:v>
@@ -530,7 +524,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MC</c:v>
+                  <c:v>BOP</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -601,40 +595,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56.7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>51.03</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>45.927</c:v>
+                  <c:v>61.560000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.863600000000012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.389516000000015</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.715507960000018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.334299999999999</c:v>
+                  <c:v>26.499561447600016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.200870000000002</c:v>
+                  <c:v>21.464644772556014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.480783000000002</c:v>
+                  <c:v>17.386362265770369</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.132704700000001</c:v>
+                  <c:v>14.082953435274</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.119434230000003</c:v>
+                  <c:v>11.407192282571941</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24.407490807000002</c:v>
+                  <c:v>9.2398257488832733</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.966741726300004</c:v>
+                  <c:v>7.4842588565954511</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -655,7 +649,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NIC</c:v>
@@ -664,7 +658,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MC</c:v>
+                  <c:v>BOP</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -735,40 +729,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5</c:v>
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5</c:v>
+                  <c:v>-4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,7 +783,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ICO</c:v>
@@ -798,7 +792,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MC</c:v>
+                  <c:v>BOP</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -869,40 +863,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.1160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.1160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.1160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.1160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.1160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.1160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.1160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.1160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.1160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.1160000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.24</c:v>
+                  <c:v>-1.1160000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -923,7 +917,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CE</c:v>
@@ -932,7 +926,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MC</c:v>
+                  <c:v>BOP</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -1003,40 +997,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-60</c:v>
+                  <c:v>-50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-54.54</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-49.576860000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-45.065365739999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-40.964417457660005</c:v>
+                  <c:v>-36.81450000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-27.106148205000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-19.957985861859459</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-14.694865410228504</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-37.236655469012945</c:v>
+                  <c:v>-10.819682452897146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-33.848119821332773</c:v>
+                  <c:v>-7.9664239932436391</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-30.767940917591492</c:v>
+                  <c:v>-5.8655983219853578</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-27.968058294090664</c:v>
+                  <c:v>-4.3187813884945996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-25.422964989328413</c:v>
+                  <c:v>-3.1798755485346892</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-23.109475175299526</c:v>
+                  <c:v>-2.3413105676306065</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-21.006512934347271</c:v>
+                  <c:v>-1.7238835578407392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,13 +1051,13 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>CU</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MC</c:v>
+                  <c:v>BOP</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -1134,40 +1128,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-10</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-9.8010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-9.7029899999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-9.605960099999999</c:v>
+                  <c:v>-8.0190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.1449290000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.3661317390000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.672223379449</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.5099004989999987</c:v>
+                  <c:v>-5.053951031089059</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.414801494009998</c:v>
+                  <c:v>-4.5030703687003513</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.3206534790698985</c:v>
+                  <c:v>-4.0122356985120131</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.2274469442791993</c:v>
+                  <c:v>-3.5749020073742037</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-9.1351724748364074</c:v>
+                  <c:v>-3.1852376885704152</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-9.0438207500880434</c:v>
+                  <c:v>-2.8380467805162399</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-8.9533825425871623</c:v>
+                  <c:v>-2.5286996814399698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1188,13 +1182,13 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RA</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MC</c:v>
+                  <c:v>BOP</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -1268,37 +1262,37 @@
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.7269999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.4788430000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.253268287</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.0482208728830003</c:v>
+                  <c:v>-2.2088700000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.6263688923000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1974791517115675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.88169192461371004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.861832773450647</c:v>
+                  <c:v>-0.64918094717382857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.6924059910666385</c:v>
+                  <c:v>-0.4779854395946182</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.5383970458795746</c:v>
+                  <c:v>-0.35193589931912134</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.3984029147045332</c:v>
+                  <c:v>-0.25912688330967587</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2711482494664206</c:v>
+                  <c:v>-0.19079253291208126</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.1554737587649762</c:v>
+                  <c:v>-0.14047863405783634</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0503256467173634</c:v>
+                  <c:v>-0.10343301347044431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1319,7 +1313,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>PR</c:v>
@@ -1328,7 +1322,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AU</c:v>
+                  <c:v>MC</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -1404,37 +1398,37 @@
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>71.25</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.6875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>64.303124999999994</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>61.087968749999995</c:v>
+                  <c:v>67.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.675000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.207500000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.03357031249999</c:v>
+                  <c:v>44.286750000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.131891796874989</c:v>
+                  <c:v>39.858075000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52.375297207031238</c:v>
+                  <c:v>35.872267500000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49.756532346679677</c:v>
+                  <c:v>32.285040750000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.26870572934569</c:v>
+                  <c:v>29.056536675000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44.905270442878404</c:v>
+                  <c:v>26.150883007500006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.660006920734482</c:v>
+                  <c:v>23.535794706750007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1455,7 +1449,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NIC</c:v>
@@ -1464,7 +1458,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AU</c:v>
+                  <c:v>MC</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -1591,7 +1585,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ICO</c:v>
@@ -1600,7 +1594,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AU</c:v>
+                  <c:v>MC</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -1727,7 +1721,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CE</c:v>
@@ -1736,7 +1730,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AU</c:v>
+                  <c:v>MC</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -1809,40 +1803,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-60</c:v>
+                  <c:v>-54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-54.54</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-49.576860000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-45.065365739999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-40.964417457660005</c:v>
+                  <c:v>-49.085999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-44.619173999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-40.558829166000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-36.867975711894005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-37.236655469012945</c:v>
+                  <c:v>-33.51298992211165</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-33.848119821332773</c:v>
+                  <c:v>-30.463307839199491</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-30.767940917591496</c:v>
+                  <c:v>-27.691146825832334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-27.968058294090667</c:v>
+                  <c:v>-25.171252464681594</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-25.422964989328417</c:v>
+                  <c:v>-22.880668490395571</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-23.109475175299529</c:v>
+                  <c:v>-20.798527657769576</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-21.006512934347274</c:v>
+                  <c:v>-18.905861640912544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,13 +1857,13 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>CU</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AU</c:v>
+                  <c:v>MC</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -1996,13 +1990,13 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RA</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AU</c:v>
+                  <c:v>MC</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -2081,34 +2075,34 @@
                   <c:v>-2.7269999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.4788430000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.253268287</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.0482208728830003</c:v>
+                  <c:v>-2.4788429999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2532682869999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0482208728829998</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-1.861832773450647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.6924059910666385</c:v>
+                  <c:v>-1.692405991066638</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.5383970458795746</c:v>
+                  <c:v>-1.5383970458795739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.3984029147045332</c:v>
+                  <c:v>-1.3984029147045327</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2711482494664206</c:v>
+                  <c:v>-1.2711482494664204</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-1.1554737587649762</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0503256467173634</c:v>
+                  <c:v>-1.0503256467173632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,7 +2123,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>PR</c:v>
@@ -2138,7 +2132,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EV</c:v>
+                  <c:v>AU</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -2212,40 +2206,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>74.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.394999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.875249999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.53148749999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>60.354913124999989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>57.337167468749989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>54.470309095312487</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30</c:v>
+                  <c:v>51.746793640546862</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>49.159453958519514</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>46.701481260593539</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>44.366407197563859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2266,7 +2260,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NIC</c:v>
@@ -2275,7 +2269,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EV</c:v>
+                  <c:v>AU</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -2403,7 +2397,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ICO</c:v>
@@ -2412,7 +2406,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EV</c:v>
+                  <c:v>AU</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -2540,7 +2534,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CE</c:v>
@@ -2549,7 +2543,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EV</c:v>
+                  <c:v>AU</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -2623,40 +2617,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-63.9</c:v>
+                  <c:v>-60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-58.085099999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-52.799355900000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-47.994614513099989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-43.627104592407896</c:v>
+                  <c:v>-54.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-49.576859999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-45.065365740000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-40.964417457660005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-39.657038074498779</c:v>
+                  <c:v>-37.236655469012945</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-36.048247609719397</c:v>
+                  <c:v>-33.848119821332766</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-32.767857077234936</c:v>
+                  <c:v>-30.767940917591481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-29.785982083206555</c:v>
+                  <c:v>-27.96805829409066</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-27.075457713634759</c:v>
+                  <c:v>-25.422964989328413</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-24.611591061693993</c:v>
+                  <c:v>-23.109475175299529</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-22.371936275079843</c:v>
+                  <c:v>-21.006512934347271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2677,13 +2671,13 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>CU</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EV</c:v>
+                  <c:v>AU</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -2811,13 +2805,13 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RA</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EV</c:v>
+                  <c:v>AU</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -2897,34 +2891,34 @@
                   <c:v>-2.7269999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.4788430000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.253268287</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.0482208728830003</c:v>
+                  <c:v>-2.4788429999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2532682869999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0482208728829998</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-1.861832773450647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.6924059910666385</c:v>
+                  <c:v>-1.692405991066638</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.5383970458795746</c:v>
+                  <c:v>-1.5383970458795739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.3984029147045332</c:v>
+                  <c:v>-1.3984029147045327</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2711482494664206</c:v>
+                  <c:v>-1.2711482494664204</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-1.1554737587649762</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0503256467173634</c:v>
+                  <c:v>-1.0503256467173632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,7 +2939,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>PR</c:v>
@@ -2954,10 +2948,10 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>C</c:v>
+                  <c:v>EV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>I</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3027,40 +3021,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>72.3</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.685000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>65.250749999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>61.988212499999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>58.888801874999999</c:v>
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.59</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.160499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.944361781249995</c:v>
+                  <c:v>61.902474999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.147143692187498</c:v>
+                  <c:v>58.807351249999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50.489786507578124</c:v>
+                  <c:v>55.866983687499996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.965297182199222</c:v>
+                  <c:v>53.073634503124993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.567032323089258</c:v>
+                  <c:v>50.419952777968739</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.288680706934791</c:v>
+                  <c:v>47.898955139070303</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>41.124246671588054</c:v>
+                  <c:v>45.504007382116782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3081,7 +3075,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>NIC</c:v>
@@ -3090,10 +3084,10 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>C</c:v>
+                  <c:v>EV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>I</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3163,40 +3157,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-20</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-20</c:v>
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-20</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-20</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-20</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-20</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-20</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-20</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-20</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3217,7 +3211,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>ICO</c:v>
@@ -3226,10 +3220,10 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>C</c:v>
+                  <c:v>EV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>I</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3353,7 +3347,7 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>CE</c:v>
@@ -3362,10 +3356,10 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>C</c:v>
+                  <c:v>EV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>I</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3441,22 +3435,22 @@
                   <c:v>-58.085099999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-52.799355900000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-47.994614513099989</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-43.627104592407896</c:v>
+                  <c:v>-52.799355899999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-47.994614513100004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-43.627104592407903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-39.657038074498779</c:v>
+                  <c:v>-39.657038074498786</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-36.048247609719397</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-32.767857077234936</c:v>
+                  <c:v>-32.767857077234929</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>-29.785982083206555</c:v>
@@ -3465,7 +3459,7 @@
                   <c:v>-27.075457713634759</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-24.611591061693993</c:v>
+                  <c:v>-24.611591061693996</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>-22.371936275079843</c:v>
@@ -3489,16 +3483,16 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>CU</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>C</c:v>
+                  <c:v>EV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>I</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3622,16 +3616,16 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>GIC1</c:v>
+                  <c:v>GIC2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>RA</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>CL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>C</c:v>
+                  <c:v>EV</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>I</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3707,34 +3701,34 @@
                   <c:v>-2.7269999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.4788430000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.253268287</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.0482208728830003</c:v>
+                  <c:v>-2.4788429999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2532682869999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0482208728829998</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>-1.861832773450647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.6924059910666385</c:v>
+                  <c:v>-1.692405991066638</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.5383970458795746</c:v>
+                  <c:v>-1.5383970458795739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.3984029147045332</c:v>
+                  <c:v>-1.3984029147045327</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.2711482494664206</c:v>
+                  <c:v>-1.2711482494664204</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-1.1554737587649762</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.0503256467173634</c:v>
+                  <c:v>-1.0503256467173632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3743,6 +3737,822 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000022-74AD-4387-A3CC-EE5657E460E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cashflow!$A$26:$E$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>GIC2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>PR</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cashflow!$F$1:$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Values0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Values1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Values2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Values3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Values4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Values5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Values6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Values7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Values8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Values9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Values10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Values11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cashflow!$F$26:$Q$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>82.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.185000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74.275750000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.561962499999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.033864374999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.682171156249986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.498062598437485</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>57.473159468515611</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.599501495089832</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.86952642033534</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49.276050099318574</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.812247594352634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38B4-407E-88A3-9E55ACECB6D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cashflow!$A$27:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>GIC2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NIC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cashflow!$F$1:$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Values0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Values1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Values2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Values3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Values4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Values5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Values6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Values7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Values8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Values9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Values10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Values11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cashflow!$F$27:$Q$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-38B4-407E-88A3-9E55ACECB6D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="26"/>
+          <c:order val="26"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cashflow!$A$28:$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>GIC2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ICO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cashflow!$F$1:$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Values0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Values1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Values2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Values3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Values4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Values5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Values6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Values7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Values8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Values9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Values10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Values11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cashflow!$F$28:$Q$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-38B4-407E-88A3-9E55ACECB6D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cashflow!$A$29:$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>GIC2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>BE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cashflow!$F$1:$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Values0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Values1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Values2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Values3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Values4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Values5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Values6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Values7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Values8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Values9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Values10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Values11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cashflow!$F$29:$Q$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-63.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-58.085099999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-52.799355899999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-47.994614513100004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-43.627104592407903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-39.657038074498786</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-36.048247609719397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-32.767857077234929</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-29.785982083206555</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-27.075457713634759</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-24.611591061693996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-22.371936275079847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-38B4-407E-88A3-9E55ACECB6D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="28"/>
+          <c:order val="28"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cashflow!$A$30:$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>GIC2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cashflow!$F$1:$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Values0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Values1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Values2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Values3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Values4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Values5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Values6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Values7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Values8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Values9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Values10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Values11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cashflow!$F$30:$Q$30</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.8010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.7029899999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.605960099999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.5099004989999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.414801494009998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.3206534790698985</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-9.2274469442791993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.1351724748364074</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.0438207500880434</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.9533825425871623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-38B4-407E-88A3-9E55ACECB6D4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cashflow!$A$31:$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>GIC2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CL</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>C</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cashflow!$F$1:$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Values0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Values1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Values2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Values3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Values4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Values5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Values6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Values7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Values8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Values9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Values10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Values11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cashflow!$F$31:$Q$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.4788429999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2532682869999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.0482208728829998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.861832773450647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.692405991066638</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.5383970458795739</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.3984029147045327</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2711482494664204</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.1554737587649762</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.0503256467173632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-38B4-407E-88A3-9E55ACECB6D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4510,13 +5320,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4558,8 +5368,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{468DBC3D-0A65-4F14-9B32-8928DD0B1B61}" name="Table_Cashflow" displayName="Table_Cashflow" ref="A1:Q25" totalsRowShown="0">
-  <autoFilter ref="A1:Q25" xr:uid="{468DBC3D-0A65-4F14-9B32-8928DD0B1B61}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{468DBC3D-0A65-4F14-9B32-8928DD0B1B61}" name="Table_Cashflow" displayName="Table_Cashflow" ref="A1:Q31" totalsRowShown="0">
+  <autoFilter ref="A1:Q31" xr:uid="{468DBC3D-0A65-4F14-9B32-8928DD0B1B61}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{057B0D49-A8BD-499B-B2E4-E195B841EFC6}" name="DataNode" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{509FE89C-4F86-467C-A8A2-DD4211DAD010}" name="AmountType" dataDxfId="14"/>
@@ -4882,7 +5692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF902ED-C214-4F96-9503-445B7BE7E04C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4933,10 +5743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59E8FC3-4B20-424B-A44D-77DCF1F6F0A1}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4948,7 +5758,7 @@
     <col min="16" max="26" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -5001,1582 +5811,1952 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
       <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="1">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G2" s="1">
-        <f>+F2*0.9</f>
-        <v>63</v>
+        <f t="shared" ref="G2:Q2" si="0">(+F2*0.9)*0.9</f>
+        <v>61.560000000000009</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" ref="H2:Q2" si="0">+G2*0.9</f>
-        <v>56.7</v>
+        <f t="shared" si="0"/>
+        <v>49.863600000000012</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" si="0"/>
-        <v>51.03</v>
+        <v>40.389516000000015</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" si="0"/>
-        <v>45.927</v>
+        <v>32.715507960000018</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" si="0"/>
-        <v>41.334299999999999</v>
+        <v>26.499561447600016</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" si="0"/>
-        <v>37.200870000000002</v>
+        <v>21.464644772556014</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" si="0"/>
-        <v>33.480783000000002</v>
+        <v>17.386362265770369</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="0"/>
-        <v>30.132704700000001</v>
+        <v>14.082953435274</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" si="0"/>
-        <v>27.119434230000003</v>
+        <v>11.407192282571941</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>24.407490807000002</v>
+        <v>9.2398257488832733</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" si="0"/>
-        <v>21.966741726300004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7.4842588565954511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="O3" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="1">
-        <v>-5</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-5</v>
-      </c>
-      <c r="H3" s="1">
-        <v>-5</v>
-      </c>
-      <c r="I3" s="1">
-        <v>-5</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-5</v>
-      </c>
-      <c r="K3" s="1">
-        <v>-5</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-5</v>
-      </c>
-      <c r="M3" s="1">
-        <v>-5</v>
-      </c>
-      <c r="N3" s="1">
-        <v>-5</v>
-      </c>
-      <c r="O3" s="1">
-        <v>-5</v>
-      </c>
-      <c r="P3" s="1">
-        <v>-5</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F4" s="1">
+        <v>-1.1160000000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-1.1160000000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-1.1160000000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-1.1160000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-1.1160000000000001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-1.1160000000000001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-1.1160000000000001</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-1.1160000000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>-1.1160000000000001</v>
+      </c>
+      <c r="O4" s="1">
+        <v>-1.1160000000000001</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-1.1160000000000001</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>-1.1160000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-1.24</v>
-      </c>
-      <c r="G4" s="1">
-        <v>-1.24</v>
-      </c>
-      <c r="H4" s="1">
-        <v>-1.24</v>
-      </c>
-      <c r="I4" s="1">
-        <v>-1.24</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-1.24</v>
-      </c>
-      <c r="K4" s="1">
-        <v>-1.24</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-1.24</v>
-      </c>
-      <c r="M4" s="1">
-        <v>-1.24</v>
-      </c>
-      <c r="N4" s="1">
-        <v>-1.24</v>
-      </c>
-      <c r="O4" s="1">
-        <v>-1.24</v>
-      </c>
-      <c r="P4" s="1">
-        <v>-1.24</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>-1.24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
       <c r="F5" s="1">
-        <v>-60</v>
+        <v>-50</v>
       </c>
       <c r="G5" s="1">
-        <f>+F5*1.01*G2/F2</f>
-        <v>-54.54</v>
+        <f>(+F5*1.01*G2/F2)*0.9</f>
+        <v>-36.81450000000001</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="H5:Q5" si="1">+G5*1.01*H2/G2</f>
-        <v>-49.576860000000003</v>
+        <f t="shared" ref="G5:Q5" si="1">(+G5*1.01*H2/G2)*0.9</f>
+        <v>-27.106148205000011</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>-45.065365739999997</v>
+        <v>-19.957985861859459</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="1"/>
-        <v>-40.964417457660005</v>
+        <v>-14.694865410228504</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>-37.236655469012945</v>
+        <v>-10.819682452897146</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>-33.848119821332773</v>
+        <v>-7.9664239932436391</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>-30.767940917591492</v>
+        <v>-5.8655983219853578</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>-27.968058294090664</v>
+        <v>-4.3187813884945996</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="1"/>
-        <v>-25.422964989328413</v>
+        <v>-3.1798755485346892</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="1"/>
-        <v>-23.109475175299526</v>
+        <v>-2.3413105676306065</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="1"/>
-        <v>-21.006512934347271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-1.7238835578407392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="1">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="G6" s="1">
-        <f>+F6*0.99</f>
-        <v>-9.9</v>
+        <f t="shared" ref="G6:Q6" si="2">(+F6*0.99)*0.9</f>
+        <v>-8.0190000000000001</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" ref="H6:Q6" si="2">+G6*0.99</f>
-        <v>-9.8010000000000002</v>
+        <f t="shared" si="2"/>
+        <v>-7.1449290000000003</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>-9.7029899999999998</v>
+        <v>-6.3661317390000001</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>-9.605960099999999</v>
+        <v>-5.672223379449</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>-9.5099004989999987</v>
+        <v>-5.053951031089059</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>-9.414801494009998</v>
+        <v>-4.5030703687003513</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="2"/>
-        <v>-9.3206534790698985</v>
+        <v>-4.0122356985120131</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="2"/>
-        <v>-9.2274469442791993</v>
+        <v>-3.5749020073742037</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="2"/>
-        <v>-9.1351724748364074</v>
+        <v>-3.1852376885704152</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="2"/>
-        <v>-9.0438207500880434</v>
+        <v>-2.8380467805162399</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="2"/>
-        <v>-8.9533825425871623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>-2.5286996814399698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
       </c>
       <c r="F7" s="1">
         <v>-3</v>
       </c>
       <c r="G7" s="1">
         <f>+F7*G5/F5</f>
-        <v>-2.7269999999999999</v>
+        <v>-2.2088700000000006</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:Q7" si="3">+G7*H5/G5</f>
-        <v>-2.4788430000000004</v>
+        <f t="shared" ref="H7" si="3">+G7*H5/G5</f>
+        <v>-1.6263688923000006</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="3"/>
-        <v>-2.253268287</v>
+        <f t="shared" ref="I7" si="4">+H7*I5/H5</f>
+        <v>-1.1974791517115675</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
-        <v>-2.0482208728830003</v>
+        <f t="shared" ref="J7" si="5">+I7*J5/I5</f>
+        <v>-0.88169192461371004</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.861832773450647</v>
+        <f t="shared" ref="K7" si="6">+J7*K5/J5</f>
+        <v>-0.64918094717382857</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.6924059910666385</v>
+        <f t="shared" ref="L7" si="7">+K7*L5/K5</f>
+        <v>-0.4779854395946182</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.5383970458795746</v>
+        <f t="shared" ref="M7" si="8">+L7*M5/L5</f>
+        <v>-0.35193589931912134</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.3984029147045332</v>
+        <f t="shared" ref="N7" si="9">+M7*N5/M5</f>
+        <v>-0.25912688330967587</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.2711482494664206</v>
+        <f t="shared" ref="O7" si="10">+N7*O5/N5</f>
+        <v>-0.19079253291208126</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.1554737587649762</v>
+        <f t="shared" ref="P7" si="11">+O7*P5/O5</f>
+        <v>-0.14047863405783634</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.0503256467173634</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" ref="Q7" si="12">+P7*Q5/P5</f>
+        <v>-0.10343301347044431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1">
         <v>75</v>
       </c>
       <c r="G8" s="1">
-        <f>+F8*0.95</f>
-        <v>71.25</v>
+        <f>+F8*0.9</f>
+        <v>67.5</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:Q8" si="4">+G8*0.95</f>
-        <v>67.6875</v>
+        <f t="shared" ref="H8:Q8" si="13">+G8*0.9</f>
+        <v>60.75</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="4"/>
-        <v>64.303124999999994</v>
+        <f t="shared" si="13"/>
+        <v>54.675000000000004</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="4"/>
-        <v>61.087968749999995</v>
+        <f t="shared" si="13"/>
+        <v>49.207500000000003</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
-        <v>58.03357031249999</v>
+        <f t="shared" si="13"/>
+        <v>44.286750000000005</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="4"/>
-        <v>55.131891796874989</v>
+        <f t="shared" si="13"/>
+        <v>39.858075000000007</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="4"/>
-        <v>52.375297207031238</v>
+        <f t="shared" si="13"/>
+        <v>35.872267500000007</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="4"/>
-        <v>49.756532346679677</v>
+        <f t="shared" si="13"/>
+        <v>32.285040750000007</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="4"/>
-        <v>47.26870572934569</v>
+        <f t="shared" si="13"/>
+        <v>29.056536675000007</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="4"/>
-        <v>44.905270442878404</v>
+        <f t="shared" si="13"/>
+        <v>26.150883007500006</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="4"/>
-        <v>42.660006920734482</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>23.535794706750007</v>
+      </c>
+      <c r="R8">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1">
         <v>-5</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ref="G9:Q19" si="5">+F9*G3/F3</f>
         <v>-5</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1">
         <v>-1.24</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-54</v>
+      </c>
+      <c r="G11" s="1">
+        <f>+F11*1.01*G8/F8</f>
+        <v>-49.085999999999999</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ref="H11:Q11" si="14">+G11*1.01*H8/G8</f>
+        <v>-44.619173999999994</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="14"/>
+        <v>-40.558829166000002</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="14"/>
+        <v>-36.867975711894005</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="14"/>
+        <v>-33.51298992211165</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="14"/>
+        <v>-30.463307839199491</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="14"/>
+        <v>-27.691146825832334</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="14"/>
+        <v>-25.171252464681594</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="14"/>
+        <v>-22.880668490395571</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" si="14"/>
+        <v>-20.798527657769576</v>
+      </c>
+      <c r="Q11" s="1">
+        <f t="shared" si="14"/>
+        <v>-18.905861640912544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="1">
-        <v>-60</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="5"/>
-        <v>-54.54</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" si="5"/>
-        <v>-49.576860000000003</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="5"/>
-        <v>-45.065365739999997</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="5"/>
-        <v>-40.964417457660005</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="5"/>
-        <v>-37.236655469012945</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" si="5"/>
-        <v>-33.848119821332773</v>
-      </c>
-      <c r="M11" s="1">
-        <f t="shared" si="5"/>
-        <v>-30.767940917591496</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" si="5"/>
-        <v>-27.968058294090667</v>
-      </c>
-      <c r="O11" s="1">
-        <f t="shared" si="5"/>
-        <v>-25.422964989328417</v>
-      </c>
-      <c r="P11" s="1">
-        <f t="shared" si="5"/>
-        <v>-23.109475175299529</v>
-      </c>
-      <c r="Q11" s="1">
-        <f t="shared" si="5"/>
-        <v>-21.006512934347274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1">
         <v>-10</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="5"/>
+        <f>+F12*0.99</f>
         <v>-9.9</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H12:Q12" si="15">+G12*0.99</f>
         <v>-9.8010000000000002</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-9.7029899999999998</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-9.605960099999999</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-9.5099004989999987</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-9.414801494009998</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-9.3206534790698985</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-9.2274469442791993</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-9.1351724748364074</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-9.0438207500880434</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="15"/>
         <v>-8.9533825425871623</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="1">
         <v>-3</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="5"/>
+        <f>+F13*G11/F11</f>
         <v>-2.7269999999999999</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.4788430000000004</v>
+        <f t="shared" ref="H13:Q13" si="16">+G13*H11/G11</f>
+        <v>-2.4788429999999995</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.253268287</v>
+        <f t="shared" si="16"/>
+        <v>-2.2532682869999996</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.0482208728830003</v>
+        <f t="shared" si="16"/>
+        <v>-2.0482208728829998</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>-1.861832773450647</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.6924059910666385</v>
+        <f t="shared" si="16"/>
+        <v>-1.692405991066638</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.5383970458795746</v>
+        <f t="shared" si="16"/>
+        <v>-1.5383970458795739</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.3984029147045332</v>
+        <f t="shared" si="16"/>
+        <v>-1.3984029147045327</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.2711482494664206</v>
+        <f t="shared" si="16"/>
+        <v>-1.2711482494664204</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>-1.1554737587649762</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.0503256467173634</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="16"/>
+        <v>-1.0503256467173632</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1">
+        <v>78</v>
+      </c>
+      <c r="G14" s="1">
+        <f>+F14*0.95</f>
+        <v>74.099999999999994</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14:Q14" si="17">+G14*0.95</f>
+        <v>70.394999999999996</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="17"/>
+        <v>66.875249999999994</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="17"/>
+        <v>63.53148749999999</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="17"/>
+        <v>60.354913124999989</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="17"/>
+        <v>57.337167468749989</v>
+      </c>
+      <c r="M14" s="1">
+        <f t="shared" si="17"/>
+        <v>54.470309095312487</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="17"/>
+        <v>51.746793640546862</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" si="17"/>
+        <v>49.159453958519514</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="17"/>
+        <v>46.701481260593539</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="17"/>
+        <v>44.366407197563859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>30</v>
-      </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2">
-        <v>30</v>
-      </c>
-      <c r="O14" s="2">
-        <v>0</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F15" s="1">
         <v>-5</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G15:Q25" si="18">+F15*G9/F9</f>
         <v>-5</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="1">
         <v>-1.24</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F17" s="1">
-        <v>-63.9</v>
+        <v>-60</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="5"/>
-        <v>-58.085099999999997</v>
+        <f t="shared" si="18"/>
+        <v>-54.54</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="5"/>
-        <v>-52.799355900000002</v>
+        <f t="shared" si="18"/>
+        <v>-49.576859999999996</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="5"/>
-        <v>-47.994614513099989</v>
+        <f t="shared" si="18"/>
+        <v>-45.065365740000004</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="5"/>
-        <v>-43.627104592407896</v>
+        <f t="shared" si="18"/>
+        <v>-40.964417457660005</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="5"/>
-        <v>-39.657038074498779</v>
+        <f t="shared" si="18"/>
+        <v>-37.236655469012945</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="5"/>
-        <v>-36.048247609719397</v>
+        <f t="shared" si="18"/>
+        <v>-33.848119821332766</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="5"/>
-        <v>-32.767857077234936</v>
+        <f t="shared" si="18"/>
+        <v>-30.767940917591481</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="5"/>
-        <v>-29.785982083206555</v>
+        <f t="shared" si="18"/>
+        <v>-27.96805829409066</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="5"/>
-        <v>-27.075457713634759</v>
+        <f t="shared" si="18"/>
+        <v>-25.422964989328413</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="5"/>
-        <v>-24.611591061693993</v>
+        <f t="shared" si="18"/>
+        <v>-23.109475175299529</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="5"/>
-        <v>-22.371936275079843</v>
+        <f t="shared" si="18"/>
+        <v>-21.006512934347271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" s="1">
         <v>-10</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-9.9</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-9.8010000000000002</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-9.7029899999999998</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-9.605960099999999</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-9.5099004989999987</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-9.414801494009998</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-9.3206534790698985</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-9.2274469442791993</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-9.1351724748364074</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-9.0438207500880434</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-8.9533825425871623</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" t="s">
-        <v>32</v>
-      </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" s="1">
         <v>-3</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-2.7269999999999999</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.4788430000000004</v>
+        <f t="shared" si="18"/>
+        <v>-2.4788429999999995</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.253268287</v>
+        <f t="shared" si="18"/>
+        <v>-2.2532682869999996</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.0482208728830003</v>
+        <f t="shared" si="18"/>
+        <v>-2.0482208728829998</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.861832773450647</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.6924059910666385</v>
+        <f t="shared" si="18"/>
+        <v>-1.692405991066638</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.5383970458795746</v>
+        <f t="shared" si="18"/>
+        <v>-1.5383970458795739</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.3984029147045332</v>
+        <f t="shared" si="18"/>
+        <v>-1.3984029147045327</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.2711482494664206</v>
+        <f t="shared" si="18"/>
+        <v>-1.2711482494664204</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="18"/>
         <v>-1.1554737587649762</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="5"/>
-        <v>-1.0503256467173634</v>
+        <f t="shared" si="18"/>
+        <v>-1.0503256467173632</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
-        <v>23</v>
-      </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F20" s="1">
-        <v>72.3</v>
+        <v>80</v>
       </c>
       <c r="G20" s="1">
-        <f>+F20*G8/F8</f>
-        <v>68.685000000000002</v>
+        <f>+F20*0.95</f>
+        <v>76</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20:Q20" si="6">+G20*H8/G8</f>
-        <v>65.250749999999996</v>
+        <f t="shared" ref="H20:Q20" si="19">+G20*0.95</f>
+        <v>72.2</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="6"/>
-        <v>61.988212499999996</v>
+        <f t="shared" si="19"/>
+        <v>68.59</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="6"/>
-        <v>58.888801874999999</v>
+        <f t="shared" si="19"/>
+        <v>65.160499999999999</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="6"/>
-        <v>55.944361781249995</v>
+        <f t="shared" si="19"/>
+        <v>61.902474999999995</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="6"/>
-        <v>53.147143692187498</v>
+        <f t="shared" si="19"/>
+        <v>58.807351249999996</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="6"/>
-        <v>50.489786507578124</v>
+        <f t="shared" si="19"/>
+        <v>55.866983687499996</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="6"/>
-        <v>47.965297182199222</v>
+        <f t="shared" si="19"/>
+        <v>53.073634503124993</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="6"/>
-        <v>45.567032323089258</v>
+        <f t="shared" si="19"/>
+        <v>50.419952777968739</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="6"/>
-        <v>43.288680706934791</v>
+        <f t="shared" si="19"/>
+        <v>47.898955139070303</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="6"/>
-        <v>41.124246671588054</v>
+        <f t="shared" si="19"/>
+        <v>45.504007382116782</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F21" s="1">
-        <v>-20</v>
+        <v>-5</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" ref="G21:Q21" si="7">+F21*G15/F15</f>
-        <v>-20</v>
+        <f t="shared" si="18"/>
+        <v>-5</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <f t="shared" si="18"/>
+        <v>-5</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <f t="shared" si="18"/>
+        <v>-5</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <f t="shared" si="18"/>
+        <v>-5</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <f t="shared" si="18"/>
+        <v>-5</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <f t="shared" si="18"/>
+        <v>-5</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <f t="shared" si="18"/>
+        <v>-5</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <f t="shared" si="18"/>
+        <v>-5</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <f t="shared" si="18"/>
+        <v>-5</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <f t="shared" si="18"/>
+        <v>-5</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="7"/>
-        <v>-20</v>
+        <f t="shared" si="18"/>
+        <v>-5</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F22" s="1">
         <v>-1.24</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" ref="G22:Q22" si="8">+F22*G16/F16</f>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>-1.24</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F23" s="1">
         <v>-63.9</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" ref="G23:Q23" si="9">+F23*G17/F17</f>
+        <f t="shared" si="18"/>
         <v>-58.085099999999997</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="9"/>
-        <v>-52.799355900000002</v>
+        <f t="shared" si="18"/>
+        <v>-52.799355899999995</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="9"/>
-        <v>-47.994614513099989</v>
+        <f t="shared" si="18"/>
+        <v>-47.994614513100004</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="9"/>
-        <v>-43.627104592407896</v>
+        <f t="shared" si="18"/>
+        <v>-43.627104592407903</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="9"/>
-        <v>-39.657038074498779</v>
+        <f t="shared" si="18"/>
+        <v>-39.657038074498786</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>-36.048247609719397</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="9"/>
-        <v>-32.767857077234936</v>
+        <f t="shared" si="18"/>
+        <v>-32.767857077234929</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>-29.785982083206555</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>-27.075457713634759</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="9"/>
-        <v>-24.611591061693993</v>
+        <f t="shared" si="18"/>
+        <v>-24.611591061693996</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="18"/>
         <v>-22.371936275079843</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F24" s="1">
         <v>-10</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ref="G24:Q24" si="10">+F24*G18/F18</f>
+        <f t="shared" si="18"/>
         <v>-9.9</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-9.8010000000000002</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-9.7029899999999998</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-9.605960099999999</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-9.5099004989999987</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-9.414801494009998</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-9.3206534790698985</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-9.2274469442791993</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-9.1351724748364074</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-9.0438207500880434</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>-8.9533825425871623</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F25" s="1">
         <v>-3</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" ref="G25:Q25" si="11">+F25*G19/F19</f>
+        <f t="shared" si="18"/>
         <v>-2.7269999999999999</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="11"/>
-        <v>-2.4788430000000004</v>
+        <f t="shared" si="18"/>
+        <v>-2.4788429999999995</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="11"/>
-        <v>-2.253268287</v>
+        <f t="shared" si="18"/>
+        <v>-2.2532682869999996</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="11"/>
-        <v>-2.0482208728830003</v>
+        <f t="shared" si="18"/>
+        <v>-2.0482208728829998</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-1.861832773450647</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="11"/>
-        <v>-1.6924059910666385</v>
+        <f t="shared" si="18"/>
+        <v>-1.692405991066638</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="11"/>
-        <v>-1.5383970458795746</v>
+        <f t="shared" si="18"/>
+        <v>-1.5383970458795739</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="11"/>
-        <v>-1.3984029147045332</v>
+        <f t="shared" si="18"/>
+        <v>-1.3984029147045327</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="11"/>
-        <v>-1.2711482494664206</v>
+        <f t="shared" si="18"/>
+        <v>-1.2711482494664204</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-1.1554737587649762</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="11"/>
-        <v>-1.0503256467173634</v>
+        <f t="shared" si="18"/>
+        <v>-1.0503256467173632</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="1">
+        <v>82.3</v>
+      </c>
+      <c r="G26" s="1">
+        <f>+F26*G20/F20</f>
+        <v>78.185000000000002</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" ref="H26:P26" si="20">+G26*H20/G20</f>
+        <v>74.275750000000002</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="20"/>
+        <v>70.561962499999993</v>
+      </c>
+      <c r="J26" s="1">
+        <f t="shared" si="20"/>
+        <v>67.033864374999993</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="20"/>
+        <v>63.682171156249986</v>
+      </c>
+      <c r="L26" s="1">
+        <f t="shared" si="20"/>
+        <v>60.498062598437485</v>
+      </c>
+      <c r="M26" s="1">
+        <f t="shared" si="20"/>
+        <v>57.473159468515611</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="20"/>
+        <v>54.599501495089832</v>
+      </c>
+      <c r="O26" s="1">
+        <f t="shared" si="20"/>
+        <v>51.86952642033534</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="20"/>
+        <v>49.276050099318574</v>
+      </c>
+      <c r="Q26" s="1">
+        <f>+P26*Q20/P20</f>
+        <v>46.812247594352634</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-20</v>
+      </c>
+      <c r="G27" s="1">
+        <f>+F27*G21/F21</f>
+        <v>-20</v>
+      </c>
+      <c r="H27" s="1">
+        <f>+G27*H21/G21</f>
+        <v>-20</v>
+      </c>
+      <c r="I27" s="1">
+        <f>+H27*I21/H21</f>
+        <v>-20</v>
+      </c>
+      <c r="J27" s="1">
+        <f>+I27*J21/I21</f>
+        <v>-20</v>
+      </c>
+      <c r="K27" s="1">
+        <f>+J27*K21/J21</f>
+        <v>-20</v>
+      </c>
+      <c r="L27" s="1">
+        <f>+K27*L21/K21</f>
+        <v>-20</v>
+      </c>
+      <c r="M27" s="1">
+        <f>+L27*M21/L21</f>
+        <v>-20</v>
+      </c>
+      <c r="N27" s="1">
+        <f>+M27*N21/M21</f>
+        <v>-20</v>
+      </c>
+      <c r="O27" s="1">
+        <f>+N27*O21/N21</f>
+        <v>-20</v>
+      </c>
+      <c r="P27" s="1">
+        <f>+O27*P21/O21</f>
+        <v>-20</v>
+      </c>
+      <c r="Q27" s="1">
+        <f>+P27*Q21/P21</f>
+        <v>-20</v>
+      </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-1.24</v>
+      </c>
+      <c r="G28" s="1">
+        <f>+F28*G22/F22</f>
+        <v>-1.24</v>
+      </c>
+      <c r="H28" s="1">
+        <f>+G28*H22/G22</f>
+        <v>-1.24</v>
+      </c>
+      <c r="I28" s="1">
+        <f>+H28*I22/H22</f>
+        <v>-1.24</v>
+      </c>
+      <c r="J28" s="1">
+        <f>+I28*J22/I22</f>
+        <v>-1.24</v>
+      </c>
+      <c r="K28" s="1">
+        <f>+J28*K22/J22</f>
+        <v>-1.24</v>
+      </c>
+      <c r="L28" s="1">
+        <f>+K28*L22/K22</f>
+        <v>-1.24</v>
+      </c>
+      <c r="M28" s="1">
+        <f>+L28*M22/L22</f>
+        <v>-1.24</v>
+      </c>
+      <c r="N28" s="1">
+        <f>+M28*N22/M22</f>
+        <v>-1.24</v>
+      </c>
+      <c r="O28" s="1">
+        <f>+N28*O22/N22</f>
+        <v>-1.24</v>
+      </c>
+      <c r="P28" s="1">
+        <f>+O28*P22/O22</f>
+        <v>-1.24</v>
+      </c>
+      <c r="Q28" s="1">
+        <f>+P28*Q22/P22</f>
+        <v>-1.24</v>
+      </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-63.9</v>
+      </c>
+      <c r="G29" s="1">
+        <f>+F29*G23/F23</f>
+        <v>-58.085099999999997</v>
+      </c>
+      <c r="H29" s="1">
+        <f>+G29*H23/G23</f>
+        <v>-52.799355899999995</v>
+      </c>
+      <c r="I29" s="1">
+        <f>+H29*I23/H23</f>
+        <v>-47.994614513100004</v>
+      </c>
+      <c r="J29" s="1">
+        <f>+I29*J23/I23</f>
+        <v>-43.627104592407903</v>
+      </c>
+      <c r="K29" s="1">
+        <f>+J29*K23/J23</f>
+        <v>-39.657038074498786</v>
+      </c>
+      <c r="L29" s="1">
+        <f>+K29*L23/K23</f>
+        <v>-36.048247609719397</v>
+      </c>
+      <c r="M29" s="1">
+        <f>+L29*M23/L23</f>
+        <v>-32.767857077234929</v>
+      </c>
+      <c r="N29" s="1">
+        <f>+M29*N23/M23</f>
+        <v>-29.785982083206555</v>
+      </c>
+      <c r="O29" s="1">
+        <f>+N29*O23/N23</f>
+        <v>-27.075457713634759</v>
+      </c>
+      <c r="P29" s="1">
+        <f>+O29*P23/O23</f>
+        <v>-24.611591061693996</v>
+      </c>
+      <c r="Q29" s="1">
+        <f>+P29*Q23/P23</f>
+        <v>-22.371936275079847</v>
+      </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-10</v>
+      </c>
+      <c r="G30" s="1">
+        <f>+F30*G24/F24</f>
+        <v>-9.9</v>
+      </c>
+      <c r="H30" s="1">
+        <f>+G30*H24/G24</f>
+        <v>-9.8010000000000002</v>
+      </c>
+      <c r="I30" s="1">
+        <f>+H30*I24/H24</f>
+        <v>-9.7029899999999998</v>
+      </c>
+      <c r="J30" s="1">
+        <f>+I30*J24/I24</f>
+        <v>-9.605960099999999</v>
+      </c>
+      <c r="K30" s="1">
+        <f>+J30*K24/J24</f>
+        <v>-9.5099004989999987</v>
+      </c>
+      <c r="L30" s="1">
+        <f>+K30*L24/K24</f>
+        <v>-9.414801494009998</v>
+      </c>
+      <c r="M30" s="1">
+        <f>+L30*M24/L24</f>
+        <v>-9.3206534790698985</v>
+      </c>
+      <c r="N30" s="1">
+        <f>+M30*N24/M24</f>
+        <v>-9.2274469442791993</v>
+      </c>
+      <c r="O30" s="1">
+        <f>+N30*O24/N24</f>
+        <v>-9.1351724748364074</v>
+      </c>
+      <c r="P30" s="1">
+        <f>+O30*P24/O24</f>
+        <v>-9.0438207500880434</v>
+      </c>
+      <c r="Q30" s="1">
+        <f>+P30*Q24/P24</f>
+        <v>-8.9533825425871623</v>
+      </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-3</v>
+      </c>
+      <c r="G31" s="1">
+        <f>+F31*G25/F25</f>
+        <v>-2.7269999999999999</v>
+      </c>
+      <c r="H31" s="1">
+        <f>+G31*H25/G25</f>
+        <v>-2.4788429999999995</v>
+      </c>
+      <c r="I31" s="1">
+        <f>+H31*I25/H25</f>
+        <v>-2.2532682869999996</v>
+      </c>
+      <c r="J31" s="1">
+        <f>+I31*J25/I25</f>
+        <v>-2.0482208728829998</v>
+      </c>
+      <c r="K31" s="1">
+        <f>+J31*K25/J25</f>
+        <v>-1.861832773450647</v>
+      </c>
+      <c r="L31" s="1">
+        <f>+K31*L25/K25</f>
+        <v>-1.692405991066638</v>
+      </c>
+      <c r="M31" s="1">
+        <f>+L31*M25/L25</f>
+        <v>-1.5383970458795739</v>
+      </c>
+      <c r="N31" s="1">
+        <f>+M31*N25/M25</f>
+        <v>-1.3984029147045327</v>
+      </c>
+      <c r="O31" s="1">
+        <f>+N31*O25/N25</f>
+        <v>-1.2711482494664204</v>
+      </c>
+      <c r="P31" s="1">
+        <f>+O31*P25/O25</f>
+        <v>-1.1554737587649762</v>
+      </c>
+      <c r="Q31" s="1">
+        <f>+P31*Q25/P25</f>
+        <v>-1.0503256467173632</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="E2:E31" xr:uid="{0F7E7F28-792F-463C-A61C-1C46296B9633}">
+  <dataValidations disablePrompts="1" count="4">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E37" xr:uid="{0F7E7F28-792F-463C-A61C-1C46296B9633}">
       <formula1>Novelty_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D31" xr:uid="{6B4B47A9-C9B6-46FD-AC51-39AF8A737A35}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D37" xr:uid="{6B4B47A9-C9B6-46FD-AC51-39AF8A737A35}">
       <formula1>VariableType_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2:C31" xr:uid="{C1473488-71A4-45AD-A7F0-BE10261E97AB}">
+    <dataValidation type="list" allowBlank="1" sqref="B2:C37" xr:uid="{C1473488-71A4-45AD-A7F0-BE10261E97AB}">
       <formula1>AmountType_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A2:A31" xr:uid="{68F8460D-C0F8-4BA9-B047-C7A65AED9257}">
+    <dataValidation type="list" allowBlank="1" sqref="A2:A37" xr:uid="{68F8460D-C0F8-4BA9-B047-C7A65AED9257}">
       <formula1>GroupOfContract_SystemName</formula1>
     </dataValidation>
   </dataValidations>
@@ -6612,16 +7792,16 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6635,10 +7815,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>39</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -6655,10 +7835,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <v>1</v>

--- a/SensitivityAnalisys/CF_G_2023_3.xlsx
+++ b/SensitivityAnalisys/CF_G_2023_3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4395C768-8CC4-4583-8F53-50D909C29855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1664F2BD-C3C1-445A-9A98-B2043F807FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="79890" yWindow="0" windowWidth="25815" windowHeight="20985" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80370" yWindow="1095" windowWidth="24285" windowHeight="17445" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="41">
   <si>
     <t>ReportingNode</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>GIC2</t>
-  </si>
-  <si>
-    <t>BOP</t>
   </si>
 </sst>
 </file>
@@ -524,7 +521,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BOP</c:v>
+                  <c:v>MC</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -595,40 +592,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>76</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>61.560000000000009</c:v>
+                  <c:v>67.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49.863600000000012</c:v>
+                  <c:v>60.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.389516000000015</c:v>
+                  <c:v>54.675000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.715507960000018</c:v>
+                  <c:v>49.207500000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.499561447600016</c:v>
+                  <c:v>44.286750000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.464644772556014</c:v>
+                  <c:v>39.858075000000007</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17.386362265770369</c:v>
+                  <c:v>35.872267500000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.082953435274</c:v>
+                  <c:v>32.285040750000007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.407192282571941</c:v>
+                  <c:v>29.056536675000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.2398257488832733</c:v>
+                  <c:v>26.150883007500006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4842588565954511</c:v>
+                  <c:v>23.535794706750007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -658,7 +655,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BOP</c:v>
+                  <c:v>MC</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -729,40 +726,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-4.5</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.5</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.5</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.5</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-4.5</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.5</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.5</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.5</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.5</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.5</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.5</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-4.5</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -792,7 +789,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BOP</c:v>
+                  <c:v>MC</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -863,40 +860,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-1.1160000000000001</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.1160000000000001</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.1160000000000001</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.1160000000000001</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.1160000000000001</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1160000000000001</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.1160000000000001</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.1160000000000001</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.1160000000000001</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.1160000000000001</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.1160000000000001</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.1160000000000001</c:v>
+                  <c:v>-1.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,7 +923,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BOP</c:v>
+                  <c:v>MC</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -997,40 +994,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-50</c:v>
+                  <c:v>-54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-36.81450000000001</c:v>
+                  <c:v>-49.085999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-27.106148205000011</c:v>
+                  <c:v>-44.619173999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-19.957985861859459</c:v>
+                  <c:v>-40.558829166000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-14.694865410228504</c:v>
+                  <c:v>-36.867975711894005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-10.819682452897146</c:v>
+                  <c:v>-33.51298992211165</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.9664239932436391</c:v>
+                  <c:v>-30.463307839199491</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5.8655983219853578</c:v>
+                  <c:v>-27.691146825832334</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.3187813884945996</c:v>
+                  <c:v>-25.171252464681594</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.1798755485346892</c:v>
+                  <c:v>-22.880668490395571</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.3413105676306065</c:v>
+                  <c:v>-20.798527657769576</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.7238835578407392</c:v>
+                  <c:v>-18.905861640912544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,7 +1054,7 @@
                   <c:v>CU</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BOP</c:v>
+                  <c:v>MC</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -1128,40 +1125,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-9</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.0190000000000001</c:v>
+                  <c:v>-9.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.1449290000000003</c:v>
+                  <c:v>-9.8010000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.3661317390000001</c:v>
+                  <c:v>-9.7029899999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.672223379449</c:v>
+                  <c:v>-9.605960099999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5.053951031089059</c:v>
+                  <c:v>-9.5099004989999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.5030703687003513</c:v>
+                  <c:v>-9.414801494009998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-4.0122356985120131</c:v>
+                  <c:v>-9.3206534790698985</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.5749020073742037</c:v>
+                  <c:v>-9.2274469442791993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-3.1852376885704152</c:v>
+                  <c:v>-9.1351724748364074</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.8380467805162399</c:v>
+                  <c:v>-9.0438207500880434</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-2.5286996814399698</c:v>
+                  <c:v>-8.9533825425871623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1188,7 +1185,7 @@
                   <c:v>RA</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>BOP</c:v>
+                  <c:v>MC</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -1262,37 +1259,37 @@
                   <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.2088700000000006</c:v>
+                  <c:v>-2.7269999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.6263688923000006</c:v>
+                  <c:v>-2.4788429999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.1974791517115675</c:v>
+                  <c:v>-2.2532682869999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.88169192461371004</c:v>
+                  <c:v>-2.0482208728829998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.64918094717382857</c:v>
+                  <c:v>-1.861832773450647</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.4779854395946182</c:v>
+                  <c:v>-1.692405991066638</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.35193589931912134</c:v>
+                  <c:v>-1.5383970458795739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.25912688330967587</c:v>
+                  <c:v>-1.3984029147045327</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.19079253291208126</c:v>
+                  <c:v>-1.2711482494664204</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.14047863405783634</c:v>
+                  <c:v>-1.1554737587649762</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.10343301347044431</c:v>
+                  <c:v>-1.0503256467173632</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1322,7 +1319,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MC</c:v>
+                  <c:v>AU</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -1395,40 +1392,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.5</c:v>
+                  <c:v>74.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.75</c:v>
+                  <c:v>70.394999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>54.675000000000004</c:v>
+                  <c:v>66.875249999999994</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.207500000000003</c:v>
+                  <c:v>63.53148749999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44.286750000000005</c:v>
+                  <c:v>60.354913124999989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>39.858075000000007</c:v>
+                  <c:v>57.337167468749989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.872267500000007</c:v>
+                  <c:v>54.470309095312487</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.285040750000007</c:v>
+                  <c:v>51.746793640546862</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.056536675000007</c:v>
+                  <c:v>49.159453958519514</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>26.150883007500006</c:v>
+                  <c:v>46.701481260593539</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.535794706750007</c:v>
+                  <c:v>44.366407197563859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,7 +1455,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MC</c:v>
+                  <c:v>AU</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -1594,7 +1591,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MC</c:v>
+                  <c:v>AU</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -1730,7 +1727,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MC</c:v>
+                  <c:v>AU</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -1803,40 +1800,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-54</c:v>
+                  <c:v>-60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-49.085999999999999</c:v>
+                  <c:v>-54.54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-44.619173999999994</c:v>
+                  <c:v>-49.576859999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-40.558829166000002</c:v>
+                  <c:v>-45.065365740000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-36.867975711894005</c:v>
+                  <c:v>-40.964417457660005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-33.51298992211165</c:v>
+                  <c:v>-37.236655469012945</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-30.463307839199491</c:v>
+                  <c:v>-33.848119821332766</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-27.691146825832334</c:v>
+                  <c:v>-30.767940917591481</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-25.171252464681594</c:v>
+                  <c:v>-27.96805829409066</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-22.880668490395571</c:v>
+                  <c:v>-25.422964989328413</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-20.798527657769576</c:v>
+                  <c:v>-23.109475175299529</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-18.905861640912544</c:v>
+                  <c:v>-21.006512934347271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,7 +1860,7 @@
                   <c:v>CU</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MC</c:v>
+                  <c:v>AU</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -1996,7 +1993,7 @@
                   <c:v>RA</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>MC</c:v>
+                  <c:v>AU</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -2132,7 +2129,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AU</c:v>
+                  <c:v>EV</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -2206,40 +2203,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>78</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.099999999999994</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.394999999999996</c:v>
+                  <c:v>72.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.875249999999994</c:v>
+                  <c:v>68.59</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.53148749999999</c:v>
+                  <c:v>65.160499999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60.354913124999989</c:v>
+                  <c:v>61.902474999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>57.337167468749989</c:v>
+                  <c:v>58.807351249999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>54.470309095312487</c:v>
+                  <c:v>55.866983687499996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>51.746793640546862</c:v>
+                  <c:v>53.073634503124993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.159453958519514</c:v>
+                  <c:v>50.419952777968739</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.701481260593539</c:v>
+                  <c:v>47.898955139070303</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44.366407197563859</c:v>
+                  <c:v>45.504007382116782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,7 +2266,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AU</c:v>
+                  <c:v>EV</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -2406,7 +2403,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AU</c:v>
+                  <c:v>EV</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -2543,7 +2540,7 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AU</c:v>
+                  <c:v>EV</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -2617,40 +2614,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-60</c:v>
+                  <c:v>-63.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-54.54</c:v>
+                  <c:v>-58.085099999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-49.576859999999996</c:v>
+                  <c:v>-52.799355899999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-45.065365740000004</c:v>
+                  <c:v>-47.994614513100004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-40.964417457660005</c:v>
+                  <c:v>-43.627104592407903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-37.236655469012945</c:v>
+                  <c:v>-39.657038074498786</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-33.848119821332766</c:v>
+                  <c:v>-36.048247609719397</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-30.767940917591481</c:v>
+                  <c:v>-32.767857077234929</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-27.96805829409066</c:v>
+                  <c:v>-29.785982083206555</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-25.422964989328413</c:v>
+                  <c:v>-27.075457713634759</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-23.109475175299529</c:v>
+                  <c:v>-24.611591061693996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-21.006512934347271</c:v>
+                  <c:v>-22.371936275079843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2677,7 +2674,7 @@
                   <c:v>CU</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AU</c:v>
+                  <c:v>EV</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -2811,7 +2808,7 @@
                   <c:v>RA</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>AU</c:v>
+                  <c:v>EV</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>I</c:v>
@@ -2948,10 +2945,10 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EV</c:v>
+                  <c:v>CL</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>I</c:v>
+                  <c:v>C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3021,40 +3018,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>82.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76</c:v>
+                  <c:v>78.185000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.2</c:v>
+                  <c:v>74.275750000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.59</c:v>
+                  <c:v>70.561962499999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.160499999999999</c:v>
+                  <c:v>67.033864374999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61.902474999999995</c:v>
+                  <c:v>63.682171156249986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.807351249999996</c:v>
+                  <c:v>60.498062598437485</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>55.866983687499996</c:v>
+                  <c:v>57.473159468515611</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>53.073634503124993</c:v>
+                  <c:v>54.599501495089832</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.419952777968739</c:v>
+                  <c:v>51.86952642033534</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.898955139070303</c:v>
+                  <c:v>49.276050099318574</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45.504007382116782</c:v>
+                  <c:v>46.812247594352634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3084,10 +3081,10 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EV</c:v>
+                  <c:v>CL</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>I</c:v>
+                  <c:v>C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3157,40 +3154,40 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>-5</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-5</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-5</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-5</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-5</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-5</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3220,10 +3217,10 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EV</c:v>
+                  <c:v>CL</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>I</c:v>
+                  <c:v>C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3356,10 +3353,10 @@
                   <c:v>BE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EV</c:v>
+                  <c:v>CL</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>I</c:v>
+                  <c:v>C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3462,7 +3459,7 @@
                   <c:v>-24.611591061693996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-22.371936275079843</c:v>
+                  <c:v>-22.371936275079847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3489,10 +3486,10 @@
                   <c:v>CU</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EV</c:v>
+                  <c:v>CL</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>I</c:v>
+                  <c:v>C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3622,10 +3619,10 @@
                   <c:v>RA</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>EV</c:v>
+                  <c:v>CL</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>I</c:v>
+                  <c:v>C</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3737,822 +3734,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000022-74AD-4387-A3CC-EE5657E460E8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="24"/>
-          <c:order val="24"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cashflow!$A$26:$E$26</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>GIC2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>PR</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BE</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cashflow!$F$1:$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Values0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Values1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Values2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Values3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Values4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Values5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Values6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Values7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Values8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Values9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Values10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Values11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cashflow!$F$26:$Q$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>82.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>78.185000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>74.275750000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70.561962499999993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>67.033864374999993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>63.682171156249986</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60.498062598437485</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>57.473159468515611</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54.599501495089832</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>51.86952642033534</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>49.276050099318574</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>46.812247594352634</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-38B4-407E-88A3-9E55ACECB6D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="25"/>
-          <c:order val="25"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cashflow!$A$27:$E$27</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>GIC2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>NIC</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BE</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cashflow!$F$1:$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Values0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Values1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Values2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Values3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Values4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Values5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Values6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Values7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Values8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Values9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Values10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Values11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cashflow!$F$27:$Q$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-38B4-407E-88A3-9E55ACECB6D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="26"/>
-          <c:order val="26"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cashflow!$A$28:$E$28</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>GIC2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ICO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BE</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cashflow!$F$1:$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Values0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Values1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Values2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Values3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Values4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Values5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Values6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Values7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Values8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Values9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Values10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Values11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cashflow!$F$28:$Q$28</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-38B4-407E-88A3-9E55ACECB6D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="27"/>
-          <c:order val="27"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cashflow!$A$29:$E$29</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>GIC2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>BE</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cashflow!$F$1:$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Values0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Values1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Values2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Values3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Values4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Values5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Values6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Values7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Values8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Values9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Values10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Values11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cashflow!$F$29:$Q$29</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-63.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-58.085099999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-52.799355899999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-47.994614513100004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-43.627104592407903</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-39.657038074498786</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-36.048247609719397</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-32.767857077234929</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-29.785982083206555</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-27.075457713634759</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-24.611591061693996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-22.371936275079847</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-38B4-407E-88A3-9E55ACECB6D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="28"/>
-          <c:order val="28"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cashflow!$A$30:$E$30</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>GIC2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CU</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cashflow!$F$1:$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Values0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Values1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Values2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Values3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Values4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Values5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Values6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Values7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Values8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Values9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Values10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Values11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cashflow!$F$30:$Q$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-9.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-9.8010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-9.7029899999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-9.605960099999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-9.5099004989999987</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-9.414801494009998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-9.3206534790698985</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-9.2274469442791993</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-9.1351724748364074</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-9.0438207500880434</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-8.9533825425871623</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-38B4-407E-88A3-9E55ACECB6D4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="29"/>
-          <c:order val="29"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Cashflow!$A$31:$E$31</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>GIC2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>RA</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CL</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>C</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Cashflow!$F$1:$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>Values0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Values1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Values2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Values3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Values4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Values5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Values6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Values7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Values8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Values9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Values10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Values11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Cashflow!$F$31:$Q$31</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-2.7269999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2.4788429999999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-2.2532682869999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-2.0482208728829998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.861832773450647</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.692405991066638</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.5383970458795739</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.3984029147045327</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.2711482494664204</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.1554737587649762</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.0503256467173632</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-38B4-407E-88A3-9E55ACECB6D4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5320,13 +4501,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5368,8 +4549,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{468DBC3D-0A65-4F14-9B32-8928DD0B1B61}" name="Table_Cashflow" displayName="Table_Cashflow" ref="A1:Q31" totalsRowShown="0">
-  <autoFilter ref="A1:Q31" xr:uid="{468DBC3D-0A65-4F14-9B32-8928DD0B1B61}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{468DBC3D-0A65-4F14-9B32-8928DD0B1B61}" name="Table_Cashflow" displayName="Table_Cashflow" ref="A1:Q25" totalsRowShown="0">
+  <autoFilter ref="A1:Q25" xr:uid="{468DBC3D-0A65-4F14-9B32-8928DD0B1B61}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{057B0D49-A8BD-499B-B2E4-E195B841EFC6}" name="DataNode" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{509FE89C-4F86-467C-A8A2-DD4211DAD010}" name="AmountType" dataDxfId="14"/>
@@ -5743,10 +4924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59E8FC3-4B20-424B-A44D-77DCF1F6F0A1}">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5822,57 +5003,60 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G2" s="1">
-        <f t="shared" ref="G2:Q2" si="0">(+F2*0.9)*0.9</f>
-        <v>61.560000000000009</v>
+        <f>+F2*0.9</f>
+        <v>67.5</v>
       </c>
       <c r="H2" s="1">
-        <f t="shared" si="0"/>
-        <v>49.863600000000012</v>
+        <f t="shared" ref="H2:Q2" si="0">+G2*0.9</f>
+        <v>60.75</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" si="0"/>
-        <v>40.389516000000015</v>
+        <v>54.675000000000004</v>
       </c>
       <c r="J2" s="1">
         <f t="shared" si="0"/>
-        <v>32.715507960000018</v>
+        <v>49.207500000000003</v>
       </c>
       <c r="K2" s="1">
         <f t="shared" si="0"/>
-        <v>26.499561447600016</v>
+        <v>44.286750000000005</v>
       </c>
       <c r="L2" s="1">
         <f t="shared" si="0"/>
-        <v>21.464644772556014</v>
+        <v>39.858075000000007</v>
       </c>
       <c r="M2" s="1">
         <f t="shared" si="0"/>
-        <v>17.386362265770369</v>
+        <v>35.872267500000007</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="0"/>
-        <v>14.082953435274</v>
+        <v>32.285040750000007</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" si="0"/>
-        <v>11.407192282571941</v>
+        <v>29.056536675000007</v>
       </c>
       <c r="P2" s="1">
         <f t="shared" si="0"/>
-        <v>9.2398257488832733</v>
+        <v>26.150883007500006</v>
       </c>
       <c r="Q2" s="1">
         <f t="shared" si="0"/>
-        <v>7.4842588565954511</v>
+        <v>23.535794706750007</v>
+      </c>
+      <c r="R2">
+        <v>0.9</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -5886,46 +5070,46 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="1">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="G3" s="1">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="H3" s="1">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="I3" s="1">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="J3" s="1">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="K3" s="1">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="L3" s="1">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="M3" s="1">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="N3" s="1">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="O3" s="1">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="P3" s="1">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="Q3" s="1">
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -5939,46 +5123,46 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="1">
-        <v>-1.1160000000000001</v>
+        <v>-1.24</v>
       </c>
       <c r="G4" s="1">
-        <v>-1.1160000000000001</v>
+        <v>-1.24</v>
       </c>
       <c r="H4" s="1">
-        <v>-1.1160000000000001</v>
+        <v>-1.24</v>
       </c>
       <c r="I4" s="1">
-        <v>-1.1160000000000001</v>
+        <v>-1.24</v>
       </c>
       <c r="J4" s="1">
-        <v>-1.1160000000000001</v>
+        <v>-1.24</v>
       </c>
       <c r="K4" s="1">
-        <v>-1.1160000000000001</v>
+        <v>-1.24</v>
       </c>
       <c r="L4" s="1">
-        <v>-1.1160000000000001</v>
+        <v>-1.24</v>
       </c>
       <c r="M4" s="1">
-        <v>-1.1160000000000001</v>
+        <v>-1.24</v>
       </c>
       <c r="N4" s="1">
-        <v>-1.1160000000000001</v>
+        <v>-1.24</v>
       </c>
       <c r="O4" s="1">
-        <v>-1.1160000000000001</v>
+        <v>-1.24</v>
       </c>
       <c r="P4" s="1">
-        <v>-1.1160000000000001</v>
+        <v>-1.24</v>
       </c>
       <c r="Q4" s="1">
-        <v>-1.1160000000000001</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -5992,57 +5176,57 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="1">
-        <v>-50</v>
+        <v>-54</v>
       </c>
       <c r="G5" s="1">
-        <f>(+F5*1.01*G2/F2)*0.9</f>
-        <v>-36.81450000000001</v>
+        <f>+F5*1.01*G2/F2</f>
+        <v>-49.085999999999999</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" ref="G5:Q5" si="1">(+G5*1.01*H2/G2)*0.9</f>
-        <v>-27.106148205000011</v>
+        <f t="shared" ref="H5:Q5" si="1">+G5*1.01*H2/G2</f>
+        <v>-44.619173999999994</v>
       </c>
       <c r="I5" s="1">
         <f t="shared" si="1"/>
-        <v>-19.957985861859459</v>
+        <v>-40.558829166000002</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="1"/>
-        <v>-14.694865410228504</v>
+        <v>-36.867975711894005</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="1"/>
-        <v>-10.819682452897146</v>
+        <v>-33.51298992211165</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>-7.9664239932436391</v>
+        <v>-30.463307839199491</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>-5.8655983219853578</v>
+        <v>-27.691146825832334</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="1"/>
-        <v>-4.3187813884945996</v>
+        <v>-25.171252464681594</v>
       </c>
       <c r="O5" s="1">
         <f t="shared" si="1"/>
-        <v>-3.1798755485346892</v>
+        <v>-22.880668490395571</v>
       </c>
       <c r="P5" s="1">
         <f t="shared" si="1"/>
-        <v>-2.3413105676306065</v>
+        <v>-20.798527657769576</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="1"/>
-        <v>-1.7238835578407392</v>
+        <v>-18.905861640912544</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -6053,57 +5237,57 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="1">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G6:Q6" si="2">(+F6*0.99)*0.9</f>
-        <v>-8.0190000000000001</v>
+        <f>+F6*0.99</f>
+        <v>-9.9</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
-        <v>-7.1449290000000003</v>
+        <f t="shared" ref="H6:Q6" si="2">+G6*0.99</f>
+        <v>-9.8010000000000002</v>
       </c>
       <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>-6.3661317390000001</v>
+        <v>-9.7029899999999998</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="2"/>
-        <v>-5.672223379449</v>
+        <v>-9.605960099999999</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="2"/>
-        <v>-5.053951031089059</v>
+        <v>-9.5099004989999987</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="2"/>
-        <v>-4.5030703687003513</v>
+        <v>-9.414801494009998</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="2"/>
-        <v>-4.0122356985120131</v>
+        <v>-9.3206534790698985</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="2"/>
-        <v>-3.5749020073742037</v>
+        <v>-9.2274469442791993</v>
       </c>
       <c r="O6" s="1">
         <f t="shared" si="2"/>
-        <v>-3.1852376885704152</v>
+        <v>-9.1351724748364074</v>
       </c>
       <c r="P6" s="1">
         <f t="shared" si="2"/>
-        <v>-2.8380467805162399</v>
+        <v>-9.0438207500880434</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="2"/>
-        <v>-2.5286996814399698</v>
+        <v>-8.9533825425871623</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -6114,7 +5298,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -6124,47 +5308,47 @@
       </c>
       <c r="G7" s="1">
         <f>+F7*G5/F5</f>
-        <v>-2.2088700000000006</v>
+        <v>-2.7269999999999999</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7" si="3">+G7*H5/G5</f>
-        <v>-1.6263688923000006</v>
+        <f t="shared" ref="H7:Q7" si="3">+G7*H5/G5</f>
+        <v>-2.4788429999999995</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ref="I7" si="4">+H7*I5/H5</f>
-        <v>-1.1974791517115675</v>
+        <f t="shared" si="3"/>
+        <v>-2.2532682869999996</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7" si="5">+I7*J5/I5</f>
-        <v>-0.88169192461371004</v>
+        <f t="shared" si="3"/>
+        <v>-2.0482208728829998</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" ref="K7" si="6">+J7*K5/J5</f>
-        <v>-0.64918094717382857</v>
+        <f t="shared" si="3"/>
+        <v>-1.861832773450647</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" ref="L7" si="7">+K7*L5/K5</f>
-        <v>-0.4779854395946182</v>
+        <f t="shared" si="3"/>
+        <v>-1.692405991066638</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" ref="M7" si="8">+L7*M5/L5</f>
-        <v>-0.35193589931912134</v>
+        <f t="shared" si="3"/>
+        <v>-1.5383970458795739</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" ref="N7" si="9">+M7*N5/M5</f>
-        <v>-0.25912688330967587</v>
+        <f t="shared" si="3"/>
+        <v>-1.3984029147045327</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" ref="O7" si="10">+N7*O5/N5</f>
-        <v>-0.19079253291208126</v>
+        <f t="shared" si="3"/>
+        <v>-1.2711482494664204</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" ref="P7" si="11">+O7*P5/O5</f>
-        <v>-0.14047863405783634</v>
+        <f t="shared" si="3"/>
+        <v>-1.1554737587649762</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" ref="Q7" si="12">+P7*Q5/P5</f>
-        <v>-0.10343301347044431</v>
+        <f t="shared" si="3"/>
+        <v>-1.0503256467173632</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -6178,60 +5362,57 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="1">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1">
-        <f>+F8*0.9</f>
-        <v>67.5</v>
+        <f>+F8*0.95</f>
+        <v>74.099999999999994</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:Q8" si="13">+G8*0.9</f>
-        <v>60.75</v>
+        <f t="shared" ref="H8:Q8" si="4">+G8*0.95</f>
+        <v>70.394999999999996</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="13"/>
-        <v>54.675000000000004</v>
+        <f t="shared" si="4"/>
+        <v>66.875249999999994</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="13"/>
-        <v>49.207500000000003</v>
+        <f t="shared" si="4"/>
+        <v>63.53148749999999</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="13"/>
-        <v>44.286750000000005</v>
+        <f t="shared" si="4"/>
+        <v>60.354913124999989</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="13"/>
-        <v>39.858075000000007</v>
+        <f t="shared" si="4"/>
+        <v>57.337167468749989</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="13"/>
-        <v>35.872267500000007</v>
+        <f t="shared" si="4"/>
+        <v>54.470309095312487</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="13"/>
-        <v>32.285040750000007</v>
+        <f t="shared" si="4"/>
+        <v>51.746793640546862</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" si="13"/>
-        <v>29.056536675000007</v>
+        <f t="shared" si="4"/>
+        <v>49.159453958519514</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" si="13"/>
-        <v>26.150883007500006</v>
+        <f t="shared" si="4"/>
+        <v>46.701481260593539</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" si="13"/>
-        <v>23.535794706750007</v>
-      </c>
-      <c r="R8">
-        <v>0.9</v>
+        <f t="shared" si="4"/>
+        <v>44.366407197563859</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -6245,7 +5426,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -6254,36 +5435,47 @@
         <v>-5</v>
       </c>
       <c r="G9" s="1">
+        <f t="shared" ref="G9:Q19" si="5">+F9*G3/F3</f>
         <v>-5</v>
       </c>
       <c r="H9" s="1">
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="J9" s="1">
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="K9" s="1">
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="L9" s="1">
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="M9" s="1">
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="N9" s="1">
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="O9" s="1">
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="P9" s="1">
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="Q9" s="1">
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
     </row>
@@ -6298,7 +5490,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
@@ -6307,36 +5499,47 @@
         <v>-1.24</v>
       </c>
       <c r="G10" s="1">
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="H10" s="1">
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="J10" s="1">
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="K10" s="1">
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="L10" s="1">
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="M10" s="1">
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="N10" s="1">
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="O10" s="1">
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="P10" s="1">
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="Q10" s="1">
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
     </row>
@@ -6351,57 +5554,57 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="1">
-        <v>-54</v>
+        <v>-60</v>
       </c>
       <c r="G11" s="1">
-        <f>+F11*1.01*G8/F8</f>
-        <v>-49.085999999999999</v>
+        <f t="shared" si="5"/>
+        <v>-54.54</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" ref="H11:Q11" si="14">+G11*1.01*H8/G8</f>
-        <v>-44.619173999999994</v>
+        <f t="shared" si="5"/>
+        <v>-49.576859999999996</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="14"/>
-        <v>-40.558829166000002</v>
+        <f t="shared" si="5"/>
+        <v>-45.065365740000004</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="14"/>
-        <v>-36.867975711894005</v>
+        <f t="shared" si="5"/>
+        <v>-40.964417457660005</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="14"/>
-        <v>-33.51298992211165</v>
+        <f t="shared" si="5"/>
+        <v>-37.236655469012945</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="14"/>
-        <v>-30.463307839199491</v>
+        <f t="shared" si="5"/>
+        <v>-33.848119821332766</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="14"/>
-        <v>-27.691146825832334</v>
+        <f t="shared" si="5"/>
+        <v>-30.767940917591481</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="14"/>
-        <v>-25.171252464681594</v>
+        <f t="shared" si="5"/>
+        <v>-27.96805829409066</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="14"/>
-        <v>-22.880668490395571</v>
+        <f t="shared" si="5"/>
+        <v>-25.422964989328413</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="14"/>
-        <v>-20.798527657769576</v>
+        <f t="shared" si="5"/>
+        <v>-23.109475175299529</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="14"/>
-        <v>-18.905861640912544</v>
+        <f t="shared" si="5"/>
+        <v>-21.006512934347271</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -6412,7 +5615,7 @@
         <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
         <v>24</v>
@@ -6421,47 +5624,47 @@
         <v>-10</v>
       </c>
       <c r="G12" s="1">
-        <f>+F12*0.99</f>
+        <f t="shared" si="5"/>
         <v>-9.9</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" ref="H12:Q12" si="15">+G12*0.99</f>
+        <f t="shared" si="5"/>
         <v>-9.8010000000000002</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-9.7029899999999998</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-9.605960099999999</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-9.5099004989999987</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-9.414801494009998</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-9.3206534790698985</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-9.2274469442791993</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-9.1351724748364074</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-9.0438207500880434</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-8.9533825425871623</v>
       </c>
     </row>
@@ -6473,7 +5676,7 @@
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
@@ -6482,47 +5685,47 @@
         <v>-3</v>
       </c>
       <c r="G13" s="1">
-        <f>+F13*G11/F11</f>
+        <f t="shared" si="5"/>
         <v>-2.7269999999999999</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13:Q13" si="16">+G13*H11/G11</f>
+        <f t="shared" si="5"/>
         <v>-2.4788429999999995</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>-2.2532682869999996</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>-2.0482208728829998</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>-1.861832773450647</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>-1.692405991066638</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>-1.5383970458795739</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>-1.3984029147045327</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>-1.2711482494664204</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>-1.1554737587649762</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="5"/>
         <v>-1.0503256467173632</v>
       </c>
     </row>
@@ -6537,57 +5740,57 @@
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="1">
         <f>+F14*0.95</f>
-        <v>74.099999999999994</v>
+        <v>76</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" ref="H14:Q14" si="17">+G14*0.95</f>
-        <v>70.394999999999996</v>
+        <f t="shared" ref="H14:Q14" si="6">+G14*0.95</f>
+        <v>72.2</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="17"/>
-        <v>66.875249999999994</v>
+        <f t="shared" si="6"/>
+        <v>68.59</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="17"/>
-        <v>63.53148749999999</v>
+        <f t="shared" si="6"/>
+        <v>65.160499999999999</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="17"/>
-        <v>60.354913124999989</v>
+        <f t="shared" si="6"/>
+        <v>61.902474999999995</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="17"/>
-        <v>57.337167468749989</v>
+        <f t="shared" si="6"/>
+        <v>58.807351249999996</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="17"/>
-        <v>54.470309095312487</v>
+        <f t="shared" si="6"/>
+        <v>55.866983687499996</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="17"/>
-        <v>51.746793640546862</v>
+        <f t="shared" si="6"/>
+        <v>53.073634503124993</v>
       </c>
       <c r="O14" s="1">
-        <f t="shared" si="17"/>
-        <v>49.159453958519514</v>
+        <f t="shared" si="6"/>
+        <v>50.419952777968739</v>
       </c>
       <c r="P14" s="1">
-        <f t="shared" si="17"/>
-        <v>46.701481260593539</v>
+        <f t="shared" si="6"/>
+        <v>47.898955139070303</v>
       </c>
       <c r="Q14" s="1">
-        <f t="shared" si="17"/>
-        <v>44.366407197563859</v>
+        <f t="shared" si="6"/>
+        <v>45.504007382116782</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -6601,7 +5804,7 @@
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
         <v>24</v>
@@ -6610,47 +5813,47 @@
         <v>-5</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ref="G15:Q25" si="18">+F15*G9/F9</f>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="P15" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
       <c r="Q15" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-5</v>
       </c>
     </row>
@@ -6665,7 +5868,7 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
         <v>24</v>
@@ -6674,47 +5877,47 @@
         <v>-1.24</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="P16" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
       <c r="Q16" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.24</v>
       </c>
     </row>
@@ -6729,57 +5932,57 @@
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
         <v>24</v>
       </c>
       <c r="F17" s="1">
-        <v>-60</v>
+        <v>-63.9</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" si="18"/>
-        <v>-54.54</v>
+        <f t="shared" si="5"/>
+        <v>-58.085099999999997</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="18"/>
-        <v>-49.576859999999996</v>
+        <f t="shared" si="5"/>
+        <v>-52.799355899999995</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="18"/>
-        <v>-45.065365740000004</v>
+        <f t="shared" si="5"/>
+        <v>-47.994614513100004</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="18"/>
-        <v>-40.964417457660005</v>
+        <f t="shared" si="5"/>
+        <v>-43.627104592407903</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="18"/>
-        <v>-37.236655469012945</v>
+        <f t="shared" si="5"/>
+        <v>-39.657038074498786</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="18"/>
-        <v>-33.848119821332766</v>
+        <f t="shared" si="5"/>
+        <v>-36.048247609719397</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="18"/>
-        <v>-30.767940917591481</v>
+        <f t="shared" si="5"/>
+        <v>-32.767857077234929</v>
       </c>
       <c r="N17" s="1">
-        <f t="shared" si="18"/>
-        <v>-27.96805829409066</v>
+        <f t="shared" si="5"/>
+        <v>-29.785982083206555</v>
       </c>
       <c r="O17" s="1">
-        <f t="shared" si="18"/>
-        <v>-25.422964989328413</v>
+        <f t="shared" si="5"/>
+        <v>-27.075457713634759</v>
       </c>
       <c r="P17" s="1">
-        <f t="shared" si="18"/>
-        <v>-23.109475175299529</v>
+        <f t="shared" si="5"/>
+        <v>-24.611591061693996</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="18"/>
-        <v>-21.006512934347271</v>
+        <f t="shared" si="5"/>
+        <v>-22.371936275079843</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -6790,7 +5993,7 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
@@ -6799,47 +6002,47 @@
         <v>-10</v>
       </c>
       <c r="G18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-9.9</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-9.8010000000000002</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-9.7029899999999998</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-9.605960099999999</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-9.5099004989999987</v>
       </c>
       <c r="L18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-9.414801494009998</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-9.3206534790698985</v>
       </c>
       <c r="N18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-9.2274469442791993</v>
       </c>
       <c r="O18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-9.1351724748364074</v>
       </c>
       <c r="P18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-9.0438207500880434</v>
       </c>
       <c r="Q18" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-8.9533825425871623</v>
       </c>
     </row>
@@ -6851,7 +6054,7 @@
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
@@ -6860,47 +6063,47 @@
         <v>-3</v>
       </c>
       <c r="G19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-2.7269999999999999</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-2.4788429999999995</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-2.2532682869999996</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-2.0482208728829998</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.861832773450647</v>
       </c>
       <c r="L19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.692405991066638</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.5383970458795739</v>
       </c>
       <c r="N19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.3984029147045327</v>
       </c>
       <c r="O19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.2711482494664204</v>
       </c>
       <c r="P19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.1554737587649762</v>
       </c>
       <c r="Q19" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="5"/>
         <v>-1.0503256467173632</v>
       </c>
     </row>
@@ -6915,57 +6118,57 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1">
-        <v>80</v>
+        <v>82.3</v>
       </c>
       <c r="G20" s="1">
-        <f>+F20*0.95</f>
-        <v>76</v>
+        <f t="shared" ref="G20:G25" si="7">+F20*G14/F14</f>
+        <v>78.185000000000002</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" ref="H20:Q20" si="19">+G20*0.95</f>
-        <v>72.2</v>
+        <f t="shared" ref="H20:P20" si="8">+G20*H14/G14</f>
+        <v>74.275750000000002</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="19"/>
-        <v>68.59</v>
+        <f t="shared" si="8"/>
+        <v>70.561962499999993</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="19"/>
-        <v>65.160499999999999</v>
+        <f t="shared" si="8"/>
+        <v>67.033864374999993</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="19"/>
-        <v>61.902474999999995</v>
+        <f t="shared" si="8"/>
+        <v>63.682171156249986</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="19"/>
-        <v>58.807351249999996</v>
+        <f t="shared" si="8"/>
+        <v>60.498062598437485</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="19"/>
-        <v>55.866983687499996</v>
+        <f t="shared" si="8"/>
+        <v>57.473159468515611</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="19"/>
-        <v>53.073634503124993</v>
+        <f t="shared" si="8"/>
+        <v>54.599501495089832</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="19"/>
-        <v>50.419952777968739</v>
+        <f t="shared" si="8"/>
+        <v>51.86952642033534</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="19"/>
-        <v>47.898955139070303</v>
+        <f t="shared" si="8"/>
+        <v>49.276050099318574</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="19"/>
-        <v>45.504007382116782</v>
+        <f t="shared" ref="Q20:Q25" si="9">+P20*Q14/P14</f>
+        <v>46.812247594352634</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
@@ -6979,57 +6182,57 @@
         <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F21" s="1">
-        <v>-5</v>
+        <v>-20</v>
       </c>
       <c r="G21" s="1">
-        <f t="shared" si="18"/>
-        <v>-5</v>
+        <f t="shared" si="7"/>
+        <v>-20</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="18"/>
-        <v>-5</v>
+        <f t="shared" ref="H21:P21" si="10">+G21*H15/G15</f>
+        <v>-20</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="18"/>
-        <v>-5</v>
+        <f t="shared" si="10"/>
+        <v>-20</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="18"/>
-        <v>-5</v>
+        <f t="shared" si="10"/>
+        <v>-20</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="18"/>
-        <v>-5</v>
+        <f t="shared" si="10"/>
+        <v>-20</v>
       </c>
       <c r="L21" s="1">
-        <f t="shared" si="18"/>
-        <v>-5</v>
+        <f t="shared" si="10"/>
+        <v>-20</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="18"/>
-        <v>-5</v>
+        <f t="shared" si="10"/>
+        <v>-20</v>
       </c>
       <c r="N21" s="1">
-        <f t="shared" si="18"/>
-        <v>-5</v>
+        <f t="shared" si="10"/>
+        <v>-20</v>
       </c>
       <c r="O21" s="1">
-        <f t="shared" si="18"/>
-        <v>-5</v>
+        <f t="shared" si="10"/>
+        <v>-20</v>
       </c>
       <c r="P21" s="1">
-        <f t="shared" si="18"/>
-        <v>-5</v>
+        <f t="shared" si="10"/>
+        <v>-20</v>
       </c>
       <c r="Q21" s="1">
-        <f t="shared" si="18"/>
-        <v>-5</v>
+        <f t="shared" si="9"/>
+        <v>-20</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -7043,56 +6246,56 @@
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F22" s="1">
         <v>-1.24</v>
       </c>
       <c r="G22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>-1.24</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="H22:P22" si="11">+G22*H16/G16</f>
         <v>-1.24</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>-1.24</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>-1.24</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>-1.24</v>
       </c>
       <c r="L22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>-1.24</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>-1.24</v>
       </c>
       <c r="N22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>-1.24</v>
       </c>
       <c r="O22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>-1.24</v>
       </c>
       <c r="P22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="11"/>
         <v>-1.24</v>
       </c>
       <c r="Q22" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>-1.24</v>
       </c>
     </row>
@@ -7107,57 +6310,57 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F23" s="1">
         <v>-63.9</v>
       </c>
       <c r="G23" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>-58.085099999999997</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="H23:P23" si="12">+G23*H17/G17</f>
         <v>-52.799355899999995</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>-47.994614513100004</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>-43.627104592407903</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>-39.657038074498786</v>
       </c>
       <c r="L23" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>-36.048247609719397</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>-32.767857077234929</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>-29.785982083206555</v>
       </c>
       <c r="O23" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>-27.075457713634759</v>
       </c>
       <c r="P23" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="12"/>
         <v>-24.611591061693996</v>
       </c>
       <c r="Q23" s="1">
-        <f t="shared" si="18"/>
-        <v>-22.371936275079843</v>
+        <f t="shared" si="9"/>
+        <v>-22.371936275079847</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -7168,56 +6371,56 @@
         <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F24" s="1">
         <v>-10</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>-9.9</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="H24:P24" si="13">+G24*H18/G18</f>
         <v>-9.8010000000000002</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>-9.7029899999999998</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>-9.605960099999999</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>-9.5099004989999987</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>-9.414801494009998</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>-9.3206534790698985</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>-9.2274469442791993</v>
       </c>
       <c r="O24" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>-9.1351724748364074</v>
       </c>
       <c r="P24" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>-9.0438207500880434</v>
       </c>
       <c r="Q24" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>-8.9533825425871623</v>
       </c>
     </row>
@@ -7229,534 +6432,156 @@
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F25" s="1">
         <v>-3</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="7"/>
         <v>-2.7269999999999999</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="H25:P25" si="14">+G25*H19/G19</f>
         <v>-2.4788429999999995</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-2.2532682869999996</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-2.0482208728829998</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-1.861832773450647</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-1.692405991066638</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-1.5383970458795739</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-1.3984029147045327</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-1.2711482494664204</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>-1.1554737587649762</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>-1.0503256467173632</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="1">
-        <v>82.3</v>
-      </c>
-      <c r="G26" s="1">
-        <f>+F26*G20/F20</f>
-        <v>78.185000000000002</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" ref="H26:P26" si="20">+G26*H20/G20</f>
-        <v>74.275750000000002</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="20"/>
-        <v>70.561962499999993</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="20"/>
-        <v>67.033864374999993</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="20"/>
-        <v>63.682171156249986</v>
-      </c>
-      <c r="L26" s="1">
-        <f t="shared" si="20"/>
-        <v>60.498062598437485</v>
-      </c>
-      <c r="M26" s="1">
-        <f t="shared" si="20"/>
-        <v>57.473159468515611</v>
-      </c>
-      <c r="N26" s="1">
-        <f t="shared" si="20"/>
-        <v>54.599501495089832</v>
-      </c>
-      <c r="O26" s="1">
-        <f t="shared" si="20"/>
-        <v>51.86952642033534</v>
-      </c>
-      <c r="P26" s="1">
-        <f t="shared" si="20"/>
-        <v>49.276050099318574</v>
-      </c>
-      <c r="Q26" s="1">
-        <f>+P26*Q20/P20</f>
-        <v>46.812247594352634</v>
-      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="1">
-        <v>-20</v>
-      </c>
-      <c r="G27" s="1">
-        <f>+F27*G21/F21</f>
-        <v>-20</v>
-      </c>
-      <c r="H27" s="1">
-        <f>+G27*H21/G21</f>
-        <v>-20</v>
-      </c>
-      <c r="I27" s="1">
-        <f>+H27*I21/H21</f>
-        <v>-20</v>
-      </c>
-      <c r="J27" s="1">
-        <f>+I27*J21/I21</f>
-        <v>-20</v>
-      </c>
-      <c r="K27" s="1">
-        <f>+J27*K21/J21</f>
-        <v>-20</v>
-      </c>
-      <c r="L27" s="1">
-        <f>+K27*L21/K21</f>
-        <v>-20</v>
-      </c>
-      <c r="M27" s="1">
-        <f>+L27*M21/L21</f>
-        <v>-20</v>
-      </c>
-      <c r="N27" s="1">
-        <f>+M27*N21/M21</f>
-        <v>-20</v>
-      </c>
-      <c r="O27" s="1">
-        <f>+N27*O21/N21</f>
-        <v>-20</v>
-      </c>
-      <c r="P27" s="1">
-        <f>+O27*P21/O21</f>
-        <v>-20</v>
-      </c>
-      <c r="Q27" s="1">
-        <f>+P27*Q21/P21</f>
-        <v>-20</v>
-      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="1">
-        <v>-1.24</v>
-      </c>
-      <c r="G28" s="1">
-        <f>+F28*G22/F22</f>
-        <v>-1.24</v>
-      </c>
-      <c r="H28" s="1">
-        <f>+G28*H22/G22</f>
-        <v>-1.24</v>
-      </c>
-      <c r="I28" s="1">
-        <f>+H28*I22/H22</f>
-        <v>-1.24</v>
-      </c>
-      <c r="J28" s="1">
-        <f>+I28*J22/I22</f>
-        <v>-1.24</v>
-      </c>
-      <c r="K28" s="1">
-        <f>+J28*K22/J22</f>
-        <v>-1.24</v>
-      </c>
-      <c r="L28" s="1">
-        <f>+K28*L22/K22</f>
-        <v>-1.24</v>
-      </c>
-      <c r="M28" s="1">
-        <f>+L28*M22/L22</f>
-        <v>-1.24</v>
-      </c>
-      <c r="N28" s="1">
-        <f>+M28*N22/M22</f>
-        <v>-1.24</v>
-      </c>
-      <c r="O28" s="1">
-        <f>+N28*O22/N22</f>
-        <v>-1.24</v>
-      </c>
-      <c r="P28" s="1">
-        <f>+O28*P22/O22</f>
-        <v>-1.24</v>
-      </c>
-      <c r="Q28" s="1">
-        <f>+P28*Q22/P22</f>
-        <v>-1.24</v>
-      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F29" s="1">
-        <v>-63.9</v>
-      </c>
-      <c r="G29" s="1">
-        <f>+F29*G23/F23</f>
-        <v>-58.085099999999997</v>
-      </c>
-      <c r="H29" s="1">
-        <f>+G29*H23/G23</f>
-        <v>-52.799355899999995</v>
-      </c>
-      <c r="I29" s="1">
-        <f>+H29*I23/H23</f>
-        <v>-47.994614513100004</v>
-      </c>
-      <c r="J29" s="1">
-        <f>+I29*J23/I23</f>
-        <v>-43.627104592407903</v>
-      </c>
-      <c r="K29" s="1">
-        <f>+J29*K23/J23</f>
-        <v>-39.657038074498786</v>
-      </c>
-      <c r="L29" s="1">
-        <f>+K29*L23/K23</f>
-        <v>-36.048247609719397</v>
-      </c>
-      <c r="M29" s="1">
-        <f>+L29*M23/L23</f>
-        <v>-32.767857077234929</v>
-      </c>
-      <c r="N29" s="1">
-        <f>+M29*N23/M23</f>
-        <v>-29.785982083206555</v>
-      </c>
-      <c r="O29" s="1">
-        <f>+N29*O23/N23</f>
-        <v>-27.075457713634759</v>
-      </c>
-      <c r="P29" s="1">
-        <f>+O29*P23/O23</f>
-        <v>-24.611591061693996</v>
-      </c>
-      <c r="Q29" s="1">
-        <f>+P29*Q23/P23</f>
-        <v>-22.371936275079847</v>
-      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="1">
-        <v>-10</v>
-      </c>
-      <c r="G30" s="1">
-        <f>+F30*G24/F24</f>
-        <v>-9.9</v>
-      </c>
-      <c r="H30" s="1">
-        <f>+G30*H24/G24</f>
-        <v>-9.8010000000000002</v>
-      </c>
-      <c r="I30" s="1">
-        <f>+H30*I24/H24</f>
-        <v>-9.7029899999999998</v>
-      </c>
-      <c r="J30" s="1">
-        <f>+I30*J24/I24</f>
-        <v>-9.605960099999999</v>
-      </c>
-      <c r="K30" s="1">
-        <f>+J30*K24/J24</f>
-        <v>-9.5099004989999987</v>
-      </c>
-      <c r="L30" s="1">
-        <f>+K30*L24/K24</f>
-        <v>-9.414801494009998</v>
-      </c>
-      <c r="M30" s="1">
-        <f>+L30*M24/L24</f>
-        <v>-9.3206534790698985</v>
-      </c>
-      <c r="N30" s="1">
-        <f>+M30*N24/M24</f>
-        <v>-9.2274469442791993</v>
-      </c>
-      <c r="O30" s="1">
-        <f>+N30*O24/N24</f>
-        <v>-9.1351724748364074</v>
-      </c>
-      <c r="P30" s="1">
-        <f>+O30*P24/O24</f>
-        <v>-9.0438207500880434</v>
-      </c>
-      <c r="Q30" s="1">
-        <f>+P30*Q24/P24</f>
-        <v>-8.9533825425871623</v>
-      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="1">
-        <v>-3</v>
-      </c>
-      <c r="G31" s="1">
-        <f>+F31*G25/F25</f>
-        <v>-2.7269999999999999</v>
-      </c>
-      <c r="H31" s="1">
-        <f>+G31*H25/G25</f>
-        <v>-2.4788429999999995</v>
-      </c>
-      <c r="I31" s="1">
-        <f>+H31*I25/H25</f>
-        <v>-2.2532682869999996</v>
-      </c>
-      <c r="J31" s="1">
-        <f>+I31*J25/I25</f>
-        <v>-2.0482208728829998</v>
-      </c>
-      <c r="K31" s="1">
-        <f>+J31*K25/J25</f>
-        <v>-1.861832773450647</v>
-      </c>
-      <c r="L31" s="1">
-        <f>+K31*L25/K25</f>
-        <v>-1.692405991066638</v>
-      </c>
-      <c r="M31" s="1">
-        <f>+L31*M25/L25</f>
-        <v>-1.5383970458795739</v>
-      </c>
-      <c r="N31" s="1">
-        <f>+M31*N25/M25</f>
-        <v>-1.3984029147045327</v>
-      </c>
-      <c r="O31" s="1">
-        <f>+N31*O25/N25</f>
-        <v>-1.2711482494664204</v>
-      </c>
-      <c r="P31" s="1">
-        <f>+O31*P25/O25</f>
-        <v>-1.1554737587649762</v>
-      </c>
-      <c r="Q31" s="1">
-        <f>+P31*Q25/P25</f>
-        <v>-1.0503256467173632</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-    </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-    </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-    </row>
-    <row r="37" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="4">
-    <dataValidation type="list" allowBlank="1" sqref="E2:E37" xr:uid="{0F7E7F28-792F-463C-A61C-1C46296B9633}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E31" xr:uid="{0F7E7F28-792F-463C-A61C-1C46296B9633}">
       <formula1>Novelty_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D37" xr:uid="{6B4B47A9-C9B6-46FD-AC51-39AF8A737A35}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D31" xr:uid="{6B4B47A9-C9B6-46FD-AC51-39AF8A737A35}">
       <formula1>VariableType_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2:C37" xr:uid="{C1473488-71A4-45AD-A7F0-BE10261E97AB}">
+    <dataValidation type="list" allowBlank="1" sqref="B2:C31" xr:uid="{C1473488-71A4-45AD-A7F0-BE10261E97AB}">
       <formula1>AmountType_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A2:A37" xr:uid="{68F8460D-C0F8-4BA9-B047-C7A65AED9257}">
+    <dataValidation type="list" allowBlank="1" sqref="A2:A31" xr:uid="{68F8460D-C0F8-4BA9-B047-C7A65AED9257}">
       <formula1>GroupOfContract_SystemName</formula1>
     </dataValidation>
   </dataValidations>
